--- a/FunBlock.xlsx
+++ b/FunBlock.xlsx
@@ -1,44 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MDK-Project\ARM\PopoGUI\PopoGUI\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA747F57-E2EC-459E-A0D9-27FDC11A6DC7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="2235" windowWidth="20025" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20880" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Bubble Purple</author>
   </authors>
   <commentList>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{51D36AAF-9730-4B38-AC04-C0384B2B7742}">
+    <comment ref="J6" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Bubble Purple:</t>
@@ -46,26 +33,38 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-支持8/9/16/18 bit 8080、SPI、IIC
-支持6/16/18 bit RGB I/F</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">支持8/9/16/18 bit 8080、SPI、IIC
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>支持6/16/18 bit RGB I/F</t>
         </r>
       </text>
     </comment>
-    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{FED84319-459D-4F7C-A16A-DAEF948D63B7}">
+    <comment ref="J13" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Bubble Purple:</t>
@@ -73,26 +72,38 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-8bit 8080、SPI、iic
-仅Binary</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">8bit 8080、SPI、iic
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>仅Binary</t>
         </r>
       </text>
     </comment>
-    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{59563E31-27DF-41B4-8197-8AEDFFCA29F9}">
+    <comment ref="J19" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Bubble Purple:</t>
@@ -100,14 +111,28 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-8bit 8080、spi、iic
-仅Binary</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">8bit 8080、spi、iic
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>仅Binary</t>
         </r>
       </text>
     </comment>
@@ -116,136 +141,308 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+  <si>
+    <t>PopoGUI_DeviceConfigure</t>
+  </si>
+  <si>
+    <t>PopoGUI_Device</t>
+  </si>
   <si>
     <t>st7789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>spi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#POPOGUI_DEVICE_SIZE_WIDTH</t>
+  </si>
+  <si>
+    <t>PopoGUI_Device_Init</t>
+  </si>
+  <si>
+    <t>st7789_Init</t>
   </si>
   <si>
     <t>LCD_Write_BUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#POPOGUI_DEVICE_SIZE_HIGHT</t>
+  </si>
+  <si>
+    <t>PopoGUI_Device_Clear</t>
+  </si>
+  <si>
+    <t>st7789_Write_Data</t>
+  </si>
+  <si>
+    <t>#POPOGUI_DRIVER_SELECTION</t>
+  </si>
+  <si>
+    <t>PopoGUI_Device_DrawPixelDirect</t>
+  </si>
+  <si>
+    <t>st7789_Write_Reg</t>
   </si>
   <si>
     <t>iic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st7789_Init</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st7789_Write_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st7789_Write_Reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PopoGUI_Device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PopoGUI_Device_Init</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PopoGUI_Device_Clear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#POPOGUI_DRIVER_INTERFACE</t>
+  </si>
+  <si>
+    <t>PopoGUI_Device_SetPixelBuffer</t>
   </si>
   <si>
     <t>st7789_Set_Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PopoGUI_Device_DrawPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PopoGUI_Device_Fill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#POPOGUI_SCREEN_SELECTION</t>
+  </si>
+  <si>
+    <t>PopoGUI_Device_GetPixelBuffer</t>
+  </si>
+  <si>
+    <t>#POPOGUI_SCREEN_OFFSET_X</t>
+  </si>
+  <si>
+    <t>PopoGUI_Device_FreshScreen</t>
+  </si>
+  <si>
+    <t>#POPOGUI_SCREEN_OFFSET_Y</t>
+  </si>
+  <si>
+    <t>PopoGUI_Device_FreshBuffer</t>
   </si>
   <si>
     <t>ssd1306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#POPOGUI_SCREEN_SIZE_WIDTH</t>
+  </si>
+  <si>
+    <t>struct PopoGUI_Device_Base</t>
   </si>
   <si>
     <t>ssd1306_Init</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#POPOGUI_SCREEN_SIZE_HIGHT</t>
+  </si>
+  <si>
+    <t>*PopoGUI_Device_Screen</t>
   </si>
   <si>
     <t>ssd1306_Write_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#POPOGUI_COLORMODEL_SELECTION</t>
+  </si>
+  <si>
+    <t>*PopoGUI_Device_ColorModel</t>
   </si>
   <si>
     <t>ssd1306_Write_Reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态或静态缓存、单缓存或多缓存</t>
+  </si>
+  <si>
+    <t>#POPOGUI_PIXELBUFFER_SELECTION</t>
+  </si>
+  <si>
+    <t>*PopoGUI_Device_PixelBuffer</t>
   </si>
   <si>
     <t>ssd1306_Set_Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SH1106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sh1106_Init</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sh1106_Write_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sh1106_Write_Reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sh1106_Set_Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,12 +451,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -269,42 +652,327 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -351,7 +1019,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -386,7 +1054,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -560,146 +1228,209 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="G6:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C6:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="31.375" customWidth="1"/>
+    <col min="5" max="5" width="3.75" customWidth="1"/>
+    <col min="6" max="6" width="3.375" customWidth="1"/>
+    <col min="7" max="7" width="33.625" customWidth="1"/>
+    <col min="8" max="8" width="4.625" customWidth="1"/>
+    <col min="9" max="9" width="4.75" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="4.875" customWidth="1"/>
+    <col min="12" max="12" width="4.75" customWidth="1"/>
     <col min="13" max="13" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G6" s="2" t="s">
+    <row r="6" spans="4:13">
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="4:13">
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G7" s="1" t="s">
+    </row>
+    <row r="8" spans="4:10">
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G9" s="1" t="s">
+      <c r="J8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13">
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G10" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="M12" s="2">
+      <c r="J9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13">
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7">
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13">
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="1">
         <v>8080</v>
       </c>
     </row>
-    <row r="13" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="J13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="J14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="J15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="J16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J17" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J23" s="3" t="s">
+    <row r="13" spans="4:13">
+      <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="G13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10">
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10">
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10">
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10">
+      <c r="J19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10">
+      <c r="J20" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10">
+      <c r="J21" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="10:10">
+      <c r="J22" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="10:10">
+      <c r="J23" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>